--- a/Document/need.xlsx
+++ b/Document/need.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\HouseManager5_0\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771BA837-0CC9-42A8-96A2-5F4951C9B1A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD56D0AF-3CF0-4E92-A128-B082A4BC2DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2472" yWindow="0" windowWidth="17436" windowHeight="11256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,6 +108,14 @@
   </si>
   <si>
     <t>在生产环境中，考虑将背景图片用阿里云oss代理访问。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务完成时间单，要背影。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其背影，要依据基地生成匹配。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -487,7 +495,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -621,6 +629,15 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1">
+        <v>20230511</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
